--- a/Docs/Protocol.xlsx
+++ b/Docs/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\STM32CubeIDE\workspace_1.7.0\bootloader\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0698D96-7C24-48C8-9649-4A170B62D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892B280-07B7-465E-9FD8-576F2C4701ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69994141-A26A-4B0A-8B3F-70DE63C3402D}"/>
   </bookViews>
@@ -387,6 +387,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>BOOTROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(USART1/3)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2083,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD7B052-BFF7-4911-9A58-16EAC1E1B623}">
   <dimension ref="L10:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
